--- a/data/trans_orig/P14B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2103FF6-4488-42C7-9D66-D8C882C2DF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62036163-08EE-4E0B-BBE9-BED1BB8694A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34275271-9EC6-475B-A278-D805B9219677}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F53488C-63F4-4E26-A384-E30CB685CE56}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Población cuya hipertensión le limita en 2012 (Tasa respuesta: 18,46%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>33,82%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>66,18%</t>
   </si>
   <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>24,65%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,55 +196,55 @@
     <t>25,0%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>30,11%</t>
@@ -253,31 +253,31 @@
     <t>26,23%</t>
   </si>
   <si>
-    <t>34,52%</t>
+    <t>34,67%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>65,48%</t>
+    <t>65,33%</t>
   </si>
   <si>
     <t>73,77%</t>
@@ -286,19 +286,19 @@
     <t>64,05%</t>
   </si>
   <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,25 +310,25 @@
     <t>25,6%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>24,33%</t>
+    <t>24,32%</t>
   </si>
   <si>
     <t>31,9%</t>
@@ -337,19 +337,19 @@
     <t>74,4%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>71,93%</t>
@@ -358,163 +358,169 @@
     <t>68,1%</t>
   </si>
   <si>
-    <t>75,67%</t>
+    <t>75,68%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>74,93%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>5,57%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
@@ -523,64 +529,64 @@
     <t>12,24%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>80,89%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -589,145 +595,151 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>13,08%</t>
+    <t>13,35%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>88,1%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>96,66%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D720FB-AC86-4924-85CE-F171CD26F54C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B790159-E8F7-4007-97BF-0080581C399D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1890,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BB7403-0F4C-40F9-8FC8-FDD15D50C6A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682155AA-1B3E-4A79-AAD2-60C13598AF43}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2509,13 +2521,13 @@
         <v>290703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2542,13 @@
         <v>398699</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>386</v>
@@ -2545,13 +2557,13 @@
         <v>451192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>779</v>
@@ -2560,13 +2572,13 @@
         <v>849891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7648D47-B97E-4261-A7CA-1C577EF402C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4AE721-4A71-40FF-9677-D536F3C75C97}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,13 +2777,13 @@
         <v>24144</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>160</v>
@@ -2780,13 +2792,13 @@
         <v>93208</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>193</v>
@@ -2795,13 +2807,13 @@
         <v>117351</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2828,13 @@
         <v>173130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>590</v>
@@ -2831,28 +2843,28 @@
         <v>323636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>844</v>
       </c>
       <c r="N5" s="7">
-        <v>496767</v>
+        <v>496766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2906,7 @@
         <v>1037</v>
       </c>
       <c r="N6" s="7">
-        <v>614118</v>
+        <v>614117</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2920,13 +2932,13 @@
         <v>34648</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -2935,13 +2947,13 @@
         <v>34343</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -2950,13 +2962,13 @@
         <v>68992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2983,13 @@
         <v>311558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -2986,13 +2998,13 @@
         <v>363331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>852</v>
@@ -3001,13 +3013,13 @@
         <v>674888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3087,13 @@
         <v>6226</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3090,13 +3102,13 @@
         <v>5345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3105,13 +3117,13 @@
         <v>11571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3138,13 @@
         <v>110059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>130</v>
@@ -3141,13 +3153,13 @@
         <v>75413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -3156,13 +3168,13 @@
         <v>185472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3242,13 @@
         <v>65018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>229</v>
@@ -3245,13 +3257,13 @@
         <v>132896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>306</v>
@@ -3260,13 +3272,13 @@
         <v>197914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3293,13 @@
         <v>594747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1187</v>
@@ -3296,13 +3308,13 @@
         <v>762380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1972</v>
@@ -3311,13 +3323,13 @@
         <v>1357127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B03-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62036163-08EE-4E0B-BBE9-BED1BB8694A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC72E057-0ED0-4D53-99AB-1FCB3700CA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F53488C-63F4-4E26-A384-E30CB685CE56}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A1BEF8F-653F-4A55-89FB-F4F17A009620}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Población cuya hipertensión le limita en 2012 (Tasa respuesta: 18,46%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>33,82%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>66,18%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>24,65%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,232 +196,226 @@
     <t>25,0%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya hipertensión le limita en 2015 (Tasa respuesta: 15,94%)</t>
+    <t>Población cuya hipertensión le limita en 2016 (Tasa respuesta: 15,94%)</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
   </si>
   <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>71,93%</t>
   </si>
   <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>74,93%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>3,43%</t>
@@ -430,31 +424,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,93%</t>
+    <t>15,21%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>82,07%</t>
+    <t>84,79%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -463,64 +457,58 @@
     <t>90,19%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
+    <t>32,15%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>67,85%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
@@ -1151,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B790159-E8F7-4007-97BF-0080581C399D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CE04C5-0B16-4CF0-8136-4B5E3A4EB7CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1770,13 +1758,13 @@
         <v>435720</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1779,13 @@
         <v>395464</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>434</v>
@@ -1806,13 +1794,13 @@
         <v>472791</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>798</v>
@@ -1821,13 +1809,13 @@
         <v>868254</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682155AA-1B3E-4A79-AAD2-60C13598AF43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A635C9-91A9-4AF7-A8B5-AE6303164AEE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1919,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2026,13 +2014,13 @@
         <v>58614</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -2041,13 +2029,13 @@
         <v>111884</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>158</v>
@@ -2056,13 +2044,13 @@
         <v>170498</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2065,13 @@
         <v>170325</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -2092,13 +2080,13 @@
         <v>266626</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>409</v>
@@ -2107,13 +2095,13 @@
         <v>436952</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2169,13 @@
         <v>47344</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -2196,13 +2184,13 @@
         <v>64198</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -2211,13 +2199,13 @@
         <v>111542</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2220,13 @@
         <v>179753</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>134</v>
@@ -2247,13 +2235,13 @@
         <v>153588</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>304</v>
@@ -2262,13 +2250,13 @@
         <v>333341</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2324,13 @@
         <v>7563</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2351,13 +2339,13 @@
         <v>1099</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2366,13 +2354,13 @@
         <v>8662</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2375,13 @@
         <v>48621</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -2402,13 +2390,13 @@
         <v>30978</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -2417,13 +2405,13 @@
         <v>79599</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2479,13 @@
         <v>113522</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -2506,13 +2494,13 @@
         <v>177181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>265</v>
@@ -2521,13 +2509,13 @@
         <v>290703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2530,13 @@
         <v>398699</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>386</v>
@@ -2557,13 +2545,13 @@
         <v>451192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
         <v>779</v>
@@ -2572,13 +2560,13 @@
         <v>849891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4AE721-4A71-40FF-9677-D536F3C75C97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893882A7-B91D-4434-B06C-E837BD0C3542}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2670,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2777,13 +2765,13 @@
         <v>24144</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>160</v>
@@ -2792,13 +2780,13 @@
         <v>93208</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>193</v>
@@ -2807,13 +2795,13 @@
         <v>117351</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2816,13 @@
         <v>173130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>590</v>
@@ -2843,13 +2831,13 @@
         <v>323636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>844</v>
@@ -2858,13 +2846,13 @@
         <v>496766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2920,13 @@
         <v>34648</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -2947,13 +2935,13 @@
         <v>34343</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -2962,13 +2950,13 @@
         <v>68992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2971,13 @@
         <v>311558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -2998,13 +2986,13 @@
         <v>363331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>852</v>
@@ -3013,13 +3001,13 @@
         <v>674888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3075,13 @@
         <v>6226</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3102,13 +3090,13 @@
         <v>5345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3117,13 +3105,13 @@
         <v>11571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3126,13 @@
         <v>110059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>130</v>
@@ -3153,13 +3141,13 @@
         <v>75413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -3168,13 +3156,13 @@
         <v>185472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3230,13 @@
         <v>65018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>229</v>
@@ -3257,13 +3245,13 @@
         <v>132896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>306</v>
@@ -3272,13 +3260,13 @@
         <v>197914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3281,13 @@
         <v>594747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>1187</v>
@@ -3308,13 +3296,13 @@
         <v>762380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>1972</v>
@@ -3323,13 +3311,13 @@
         <v>1357127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
